--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.876086666666667</v>
+        <v>27.815563</v>
       </c>
       <c r="H2">
-        <v>23.62826</v>
+        <v>83.44668899999999</v>
       </c>
       <c r="I2">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="J2">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N2">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O2">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P2">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q2">
-        <v>1.815385469422222</v>
+        <v>16.88480703305533</v>
       </c>
       <c r="R2">
-        <v>16.3384692248</v>
+        <v>151.963263297498</v>
       </c>
       <c r="S2">
-        <v>6.748983900699688E-05</v>
+        <v>0.001165711224362096</v>
       </c>
       <c r="T2">
-        <v>6.74898390069969E-05</v>
+        <v>0.001165711224362096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.876086666666667</v>
+        <v>27.815563</v>
       </c>
       <c r="H3">
-        <v>23.62826</v>
+        <v>83.44668899999999</v>
       </c>
       <c r="I3">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="J3">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.941443</v>
       </c>
       <c r="O3">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P3">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q3">
-        <v>33.97597555324222</v>
+        <v>119.9911743591363</v>
       </c>
       <c r="R3">
-        <v>305.78377997918</v>
+        <v>1079.920569232227</v>
       </c>
       <c r="S3">
-        <v>0.001263110870290141</v>
+        <v>0.008284078017652291</v>
       </c>
       <c r="T3">
-        <v>0.001263110870290141</v>
+        <v>0.008284078017652291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.876086666666667</v>
+        <v>27.815563</v>
       </c>
       <c r="H4">
-        <v>23.62826</v>
+        <v>83.44668899999999</v>
       </c>
       <c r="I4">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="J4">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N4">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O4">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P4">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q4">
-        <v>2.326089306424445</v>
+        <v>10.01708889722933</v>
       </c>
       <c r="R4">
-        <v>20.93480375782</v>
+        <v>90.15380007506401</v>
       </c>
       <c r="S4">
-        <v>8.647606552477626E-05</v>
+        <v>0.0006915704123874836</v>
       </c>
       <c r="T4">
-        <v>8.647606552477627E-05</v>
+        <v>0.0006915704123874837</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.876086666666667</v>
+        <v>27.815563</v>
       </c>
       <c r="H5">
-        <v>23.62826</v>
+        <v>83.44668899999999</v>
       </c>
       <c r="I5">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="J5">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N5">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O5">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P5">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q5">
-        <v>92.09492124623777</v>
+        <v>115.5823056332387</v>
       </c>
       <c r="R5">
-        <v>828.85429121614</v>
+        <v>1040.240750699148</v>
       </c>
       <c r="S5">
-        <v>0.003423775012503997</v>
+        <v>0.007979693860317452</v>
       </c>
       <c r="T5">
-        <v>0.003423775012503998</v>
+        <v>0.007979693860317452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.876086666666667</v>
+        <v>27.815563</v>
       </c>
       <c r="H6">
-        <v>23.62826</v>
+        <v>83.44668899999999</v>
       </c>
       <c r="I6">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="J6">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N6">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O6">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P6">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q6">
-        <v>2.454603412564444</v>
+        <v>12.66198733621033</v>
       </c>
       <c r="R6">
-        <v>22.09143071308</v>
+        <v>113.957886025893</v>
       </c>
       <c r="S6">
-        <v>9.125378159643631E-05</v>
+        <v>0.0008741717173110156</v>
       </c>
       <c r="T6">
-        <v>9.125378159643634E-05</v>
+        <v>0.0008741717173110156</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.876086666666667</v>
+        <v>27.815563</v>
       </c>
       <c r="H7">
-        <v>23.62826</v>
+        <v>83.44668899999999</v>
       </c>
       <c r="I7">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="J7">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N7">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O7">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P7">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q7">
-        <v>5.644562907486666</v>
+        <v>7.514022013985333</v>
       </c>
       <c r="R7">
-        <v>50.80106616738</v>
+        <v>67.626198125868</v>
       </c>
       <c r="S7">
-        <v>0.0002098455938464603</v>
+        <v>0.0005187610249059266</v>
       </c>
       <c r="T7">
-        <v>0.0002098455938464604</v>
+        <v>0.0005187610249059266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4052.669921</v>
       </c>
       <c r="I8">
-        <v>0.8819367491556352</v>
+        <v>0.947715794239517</v>
       </c>
       <c r="J8">
-        <v>0.8819367491556351</v>
+        <v>0.9477157942395171</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N8">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O8">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P8">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q8">
-        <v>311.3711329970089</v>
+        <v>820.0271383416136</v>
       </c>
       <c r="R8">
-        <v>2802.34019697308</v>
+        <v>7380.244245074523</v>
       </c>
       <c r="S8">
-        <v>0.01157571655791788</v>
+        <v>0.05661390370496722</v>
       </c>
       <c r="T8">
-        <v>0.01157571655791788</v>
+        <v>0.05661390370496722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4052.669921</v>
       </c>
       <c r="I9">
-        <v>0.8819367491556352</v>
+        <v>0.947715794239517</v>
       </c>
       <c r="J9">
-        <v>0.8819367491556351</v>
+        <v>0.9477157942395171</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>12.941443</v>
       </c>
       <c r="O9">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P9">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q9">
         <v>5827.488531159556</v>
@@ -1013,10 +1013,10 @@
         <v>52447.396780436</v>
       </c>
       <c r="S9">
-        <v>0.2166461445283312</v>
+        <v>0.4023243367433877</v>
       </c>
       <c r="T9">
-        <v>0.2166461445283313</v>
+        <v>0.4023243367433877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>4052.669921</v>
       </c>
       <c r="I10">
-        <v>0.8819367491556352</v>
+        <v>0.947715794239517</v>
       </c>
       <c r="J10">
-        <v>0.8819367491556351</v>
+        <v>0.9477157942395171</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N10">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O10">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P10">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q10">
-        <v>398.9659909661608</v>
+        <v>486.4897020633663</v>
       </c>
       <c r="R10">
-        <v>3590.693918695447</v>
+        <v>4378.407318570297</v>
       </c>
       <c r="S10">
-        <v>0.01483219456865151</v>
+        <v>0.03358679226369689</v>
       </c>
       <c r="T10">
-        <v>0.01483219456865151</v>
+        <v>0.03358679226369689</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>4052.669921</v>
       </c>
       <c r="I11">
-        <v>0.8819367491556352</v>
+        <v>0.947715794239517</v>
       </c>
       <c r="J11">
-        <v>0.8819367491556351</v>
+        <v>0.9477157942395171</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N11">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O11">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P11">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q11">
-        <v>15795.9289939882</v>
+        <v>5613.367517070153</v>
       </c>
       <c r="R11">
-        <v>142163.3609458938</v>
+        <v>50520.30765363137</v>
       </c>
       <c r="S11">
-        <v>0.587238756025469</v>
+        <v>0.3875416229695694</v>
       </c>
       <c r="T11">
-        <v>0.587238756025469</v>
+        <v>0.3875416229695695</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>4052.669921</v>
       </c>
       <c r="I12">
-        <v>0.8819367491556352</v>
+        <v>0.947715794239517</v>
       </c>
       <c r="J12">
-        <v>0.8819367491556351</v>
+        <v>0.9477157942395171</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N12">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O12">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P12">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q12">
-        <v>421.0084626664798</v>
+        <v>614.9417769894086</v>
       </c>
       <c r="R12">
-        <v>3789.076163998318</v>
+        <v>5534.475992904677</v>
       </c>
       <c r="S12">
-        <v>0.01565165847393675</v>
+        <v>0.04245500291252141</v>
       </c>
       <c r="T12">
-        <v>0.01565165847393675</v>
+        <v>0.0424550029125214</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>4052.669921</v>
       </c>
       <c r="I13">
-        <v>0.8819367491556352</v>
+        <v>0.947715794239517</v>
       </c>
       <c r="J13">
-        <v>0.8819367491556351</v>
+        <v>0.9477157942395171</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N13">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O13">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P13">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q13">
-        <v>968.1436683176636</v>
+        <v>364.9258151130502</v>
       </c>
       <c r="R13">
-        <v>8713.293014858973</v>
+        <v>3284.332336017452</v>
       </c>
       <c r="S13">
-        <v>0.0359922790013286</v>
+        <v>0.02519413564537451</v>
       </c>
       <c r="T13">
-        <v>0.03599227900132861</v>
+        <v>0.0251941356453745</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.775464</v>
+        <v>0.06264699999999999</v>
       </c>
       <c r="H14">
-        <v>2.326392</v>
+        <v>0.187941</v>
       </c>
       <c r="I14">
-        <v>0.0005062663966562098</v>
+        <v>4.394995337819644E-05</v>
       </c>
       <c r="J14">
-        <v>0.0005062663966562098</v>
+        <v>4.394995337819645E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N14">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O14">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P14">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q14">
-        <v>0.17873928224</v>
+        <v>0.03802844135133333</v>
       </c>
       <c r="R14">
-        <v>1.60865354016</v>
+        <v>0.342255972162</v>
       </c>
       <c r="S14">
-        <v>6.644916788081962E-06</v>
+        <v>2.625447885869223E-06</v>
       </c>
       <c r="T14">
-        <v>6.644916788081963E-06</v>
+        <v>2.625447885869223E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.775464</v>
+        <v>0.06264699999999999</v>
       </c>
       <c r="H15">
-        <v>2.326392</v>
+        <v>0.187941</v>
       </c>
       <c r="I15">
-        <v>0.0005062663966562098</v>
+        <v>4.394995337819644E-05</v>
       </c>
       <c r="J15">
-        <v>0.0005062663966562098</v>
+        <v>4.394995337819645E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.941443</v>
       </c>
       <c r="O15">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P15">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q15">
-        <v>3.345207718184</v>
+        <v>0.2702475265403333</v>
       </c>
       <c r="R15">
-        <v>30.106869463656</v>
+        <v>2.432227738863</v>
       </c>
       <c r="S15">
-        <v>0.0001243634115993316</v>
+        <v>1.865763549606611E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001243634115993316</v>
+        <v>1.865763549606611E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.775464</v>
+        <v>0.06264699999999999</v>
       </c>
       <c r="H16">
-        <v>2.326392</v>
+        <v>0.187941</v>
       </c>
       <c r="I16">
-        <v>0.0005062663966562098</v>
+        <v>4.394995337819644E-05</v>
       </c>
       <c r="J16">
-        <v>0.0005062663966562098</v>
+        <v>4.394995337819645E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N16">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O16">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P16">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q16">
-        <v>0.229022177416</v>
+        <v>0.02256077175733334</v>
       </c>
       <c r="R16">
-        <v>2.061199596744</v>
+        <v>0.2030469458160001</v>
       </c>
       <c r="S16">
-        <v>8.514263302854941E-06</v>
+        <v>1.557574499744574E-06</v>
       </c>
       <c r="T16">
-        <v>8.514263302854943E-06</v>
+        <v>1.557574499744574E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.775464</v>
+        <v>0.06264699999999999</v>
       </c>
       <c r="H17">
-        <v>2.326392</v>
+        <v>0.187941</v>
       </c>
       <c r="I17">
-        <v>0.0005062663966562098</v>
+        <v>4.394995337819644E-05</v>
       </c>
       <c r="J17">
-        <v>0.0005062663966562098</v>
+        <v>4.394995337819645E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N17">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O17">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P17">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q17">
-        <v>9.067484784232001</v>
+        <v>0.2603177473346667</v>
       </c>
       <c r="R17">
-        <v>81.607363058088</v>
+        <v>2.342859726012</v>
       </c>
       <c r="S17">
-        <v>0.0003370981527581464</v>
+        <v>1.797209286280876E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003370981527581464</v>
+        <v>1.797209286280876E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.775464</v>
+        <v>0.06264699999999999</v>
       </c>
       <c r="H18">
-        <v>2.326392</v>
+        <v>0.187941</v>
       </c>
       <c r="I18">
-        <v>0.0005062663966562098</v>
+        <v>4.394995337819644E-05</v>
       </c>
       <c r="J18">
-        <v>0.0005062663966562098</v>
+        <v>4.394995337819645E-05</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N18">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O18">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P18">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q18">
-        <v>0.241675423504</v>
+        <v>0.02851768704633333</v>
       </c>
       <c r="R18">
-        <v>2.175078811536</v>
+        <v>0.256659183417</v>
       </c>
       <c r="S18">
-        <v>8.984667828934364E-06</v>
+        <v>1.968834338330063E-06</v>
       </c>
       <c r="T18">
-        <v>8.984667828934366E-06</v>
+        <v>1.968834338330063E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.775464</v>
+        <v>0.06264699999999999</v>
       </c>
       <c r="H19">
-        <v>2.326392</v>
+        <v>0.187941</v>
       </c>
       <c r="I19">
-        <v>0.0005062663966562098</v>
+        <v>4.394995337819644E-05</v>
       </c>
       <c r="J19">
-        <v>0.0005062663966562098</v>
+        <v>4.394995337819645E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N19">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O19">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P19">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q19">
-        <v>0.555752560344</v>
+        <v>0.01692329352133333</v>
       </c>
       <c r="R19">
-        <v>5.001773043096001</v>
+        <v>0.152309641692</v>
       </c>
       <c r="S19">
-        <v>2.06609843788605E-05</v>
+        <v>1.16836829537772E-06</v>
       </c>
       <c r="T19">
-        <v>2.066098437886051E-05</v>
+        <v>1.16836829537772E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>169.7210186666667</v>
+        <v>46.06026966666667</v>
       </c>
       <c r="H20">
-        <v>509.163056</v>
+        <v>138.180809</v>
       </c>
       <c r="I20">
-        <v>0.1108034010053267</v>
+        <v>0.03231354581124644</v>
       </c>
       <c r="J20">
-        <v>0.1108034010053267</v>
+        <v>0.03231354581124645</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N20">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O20">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P20">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q20">
-        <v>39.11956332920889</v>
+        <v>27.95984266837089</v>
       </c>
       <c r="R20">
-        <v>352.07606996288</v>
+        <v>251.638584015338</v>
       </c>
       <c r="S20">
-        <v>0.001454331917701538</v>
+        <v>0.001930321286237431</v>
       </c>
       <c r="T20">
-        <v>0.001454331917701538</v>
+        <v>0.001930321286237431</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>169.7210186666667</v>
+        <v>46.06026966666667</v>
       </c>
       <c r="H21">
-        <v>509.163056</v>
+        <v>138.180809</v>
       </c>
       <c r="I21">
-        <v>0.1108034010053267</v>
+        <v>0.03231354581124644</v>
       </c>
       <c r="J21">
-        <v>0.1108034010053267</v>
+        <v>0.03231354581124645</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.941443</v>
       </c>
       <c r="O21">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P21">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q21">
-        <v>732.1449629922008</v>
+        <v>198.6954514852652</v>
       </c>
       <c r="R21">
-        <v>6589.304666929807</v>
+        <v>1788.259063367387</v>
       </c>
       <c r="S21">
-        <v>0.02721865218952847</v>
+        <v>0.01371774741473937</v>
       </c>
       <c r="T21">
-        <v>0.02721865218952847</v>
+        <v>0.01371774741473937</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>169.7210186666667</v>
+        <v>46.06026966666667</v>
       </c>
       <c r="H22">
-        <v>509.163056</v>
+        <v>138.180809</v>
       </c>
       <c r="I22">
-        <v>0.1108034010053267</v>
+        <v>0.03231354581124644</v>
       </c>
       <c r="J22">
-        <v>0.1108034010053267</v>
+        <v>0.03231354581124645</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N22">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O22">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P22">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q22">
-        <v>50.12467019526577</v>
+        <v>16.58746996713156</v>
       </c>
       <c r="R22">
-        <v>451.122031757392</v>
+        <v>149.2872297041841</v>
       </c>
       <c r="S22">
-        <v>0.001863464249735331</v>
+        <v>0.001145183352501453</v>
       </c>
       <c r="T22">
-        <v>0.001863464249735331</v>
+        <v>0.001145183352501453</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>169.7210186666667</v>
+        <v>46.06026966666667</v>
       </c>
       <c r="H23">
-        <v>509.163056</v>
+        <v>138.180809</v>
       </c>
       <c r="I23">
-        <v>0.1108034010053267</v>
+        <v>0.03231354581124644</v>
       </c>
       <c r="J23">
-        <v>0.1108034010053267</v>
+        <v>0.03231354581124645</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N23">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O23">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P23">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q23">
-        <v>1984.544420275287</v>
+        <v>191.3947298554431</v>
       </c>
       <c r="R23">
-        <v>17860.89978247758</v>
+        <v>1722.552568698988</v>
       </c>
       <c r="S23">
-        <v>0.07377859175508368</v>
+        <v>0.01321371244808765</v>
       </c>
       <c r="T23">
-        <v>0.07377859175508368</v>
+        <v>0.01321371244808765</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>169.7210186666667</v>
+        <v>46.06026966666667</v>
       </c>
       <c r="H24">
-        <v>509.163056</v>
+        <v>138.180809</v>
       </c>
       <c r="I24">
-        <v>0.1108034010053267</v>
+        <v>0.03231354581124644</v>
       </c>
       <c r="J24">
-        <v>0.1108034010053267</v>
+        <v>0.03231354581124645</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N24">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O24">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P24">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q24">
-        <v>52.89400805684977</v>
+        <v>20.96720282892589</v>
       </c>
       <c r="R24">
-        <v>476.0460725116479</v>
+        <v>188.704825460333</v>
       </c>
       <c r="S24">
-        <v>0.001966418784506268</v>
+        <v>0.001447555997134355</v>
       </c>
       <c r="T24">
-        <v>0.001966418784506268</v>
+        <v>0.001447555997134356</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>169.7210186666667</v>
+        <v>46.06026966666667</v>
       </c>
       <c r="H25">
-        <v>509.163056</v>
+        <v>138.180809</v>
       </c>
       <c r="I25">
-        <v>0.1108034010053267</v>
+        <v>0.03231354581124644</v>
       </c>
       <c r="J25">
-        <v>0.1108034010053267</v>
+        <v>0.03231354581124645</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N25">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O25">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P25">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q25">
-        <v>121.6341321688586</v>
+        <v>12.44259842036756</v>
       </c>
       <c r="R25">
-        <v>1094.707189519728</v>
+        <v>111.983385783308</v>
       </c>
       <c r="S25">
-        <v>0.004521942108771384</v>
+        <v>0.0008590253125461945</v>
       </c>
       <c r="T25">
-        <v>0.004521942108771384</v>
+        <v>0.0008590253125461946</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3475303333333333</v>
+        <v>0.3690546666666667</v>
       </c>
       <c r="H26">
-        <v>1.042591</v>
+        <v>1.107164</v>
       </c>
       <c r="I26">
-        <v>0.0002268872953295035</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="J26">
-        <v>0.0002268872953295035</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N26">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O26">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P26">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q26">
-        <v>0.08010342496444443</v>
+        <v>0.2240262701608889</v>
       </c>
       <c r="R26">
-        <v>0.7209308246799999</v>
+        <v>2.016236431448</v>
       </c>
       <c r="S26">
-        <v>2.977972086820776E-06</v>
+        <v>1.546656335291668E-05</v>
       </c>
       <c r="T26">
-        <v>2.977972086820776E-06</v>
+        <v>1.546656335291667E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.3475303333333333</v>
+        <v>0.3690546666666667</v>
       </c>
       <c r="H27">
-        <v>1.042591</v>
+        <v>1.107164</v>
       </c>
       <c r="I27">
-        <v>0.0002268872953295035</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="J27">
-        <v>0.0002268872953295035</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.941443</v>
       </c>
       <c r="O27">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P27">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q27">
-        <v>1.499181333201444</v>
+        <v>1.592033310850222</v>
       </c>
       <c r="R27">
-        <v>13.492631998813</v>
+        <v>14.328299797652</v>
       </c>
       <c r="S27">
-        <v>5.573444787583462E-05</v>
+        <v>0.0001099124850158642</v>
       </c>
       <c r="T27">
-        <v>5.573444787583463E-05</v>
+        <v>0.0001099124850158642</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.3475303333333333</v>
+        <v>0.3690546666666667</v>
       </c>
       <c r="H28">
-        <v>1.042591</v>
+        <v>1.107164</v>
       </c>
       <c r="I28">
-        <v>0.0002268872953295035</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="J28">
-        <v>0.0002268872953295035</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N28">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O28">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P28">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q28">
-        <v>0.1026381026818889</v>
+        <v>0.1329059348515556</v>
       </c>
       <c r="R28">
-        <v>0.9237429241369999</v>
+        <v>1.196153413664</v>
       </c>
       <c r="S28">
-        <v>3.815734532781592E-06</v>
+        <v>9.175700956338435E-06</v>
       </c>
       <c r="T28">
-        <v>3.815734532781593E-06</v>
+        <v>9.175700956338435E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.3475303333333333</v>
+        <v>0.3690546666666667</v>
       </c>
       <c r="H29">
-        <v>1.042591</v>
+        <v>1.107164</v>
       </c>
       <c r="I29">
-        <v>0.0002268872953295035</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="J29">
-        <v>0.0002268872953295035</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N29">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O29">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P29">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q29">
-        <v>4.063665121216554</v>
+        <v>1.533536792983111</v>
       </c>
       <c r="R29">
-        <v>36.57298609094899</v>
+        <v>13.801831136848</v>
       </c>
       <c r="S29">
-        <v>0.0001510732070013431</v>
+        <v>0.0001058739403448891</v>
       </c>
       <c r="T29">
-        <v>0.0001510732070013431</v>
+        <v>0.0001058739403448891</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.3475303333333333</v>
+        <v>0.3690546666666667</v>
       </c>
       <c r="H30">
-        <v>1.042591</v>
+        <v>1.107164</v>
       </c>
       <c r="I30">
-        <v>0.0002268872953295035</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="J30">
-        <v>0.0002268872953295035</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N30">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O30">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P30">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q30">
-        <v>0.1083087551308889</v>
+        <v>0.1679982359408889</v>
       </c>
       <c r="R30">
-        <v>0.9747787961779998</v>
+        <v>1.511984123468</v>
       </c>
       <c r="S30">
-        <v>4.026550046783391E-06</v>
+        <v>1.159844047527079E-05</v>
       </c>
       <c r="T30">
-        <v>4.026550046783391E-06</v>
+        <v>1.159844047527078E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.3475303333333333</v>
+        <v>0.3690546666666667</v>
       </c>
       <c r="H31">
-        <v>1.042591</v>
+        <v>1.107164</v>
       </c>
       <c r="I31">
-        <v>0.0002268872953295035</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="J31">
-        <v>0.0002268872953295035</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N31">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O31">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P31">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q31">
-        <v>0.2490649115203333</v>
+        <v>0.09969544350755556</v>
       </c>
       <c r="R31">
-        <v>2.241584203682999</v>
+        <v>0.897258991568</v>
       </c>
       <c r="S31">
-        <v>9.259383785940008E-06</v>
+        <v>6.882879815386628E-06</v>
       </c>
       <c r="T31">
-        <v>9.259383785940012E-06</v>
+        <v>6.882879815386627E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.121057</v>
+        <v>0.2192486666666666</v>
       </c>
       <c r="H32">
-        <v>6.363171</v>
+        <v>0.6577459999999999</v>
       </c>
       <c r="I32">
-        <v>0.001384744984283513</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="J32">
-        <v>0.001384744984283513</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N32">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O32">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P32">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q32">
-        <v>0.48888949812</v>
+        <v>0.1330899334635555</v>
       </c>
       <c r="R32">
-        <v>4.40000548308</v>
+        <v>1.197809401172</v>
       </c>
       <c r="S32">
-        <v>1.817524381245134E-05</v>
+        <v>9.188404047754019E-06</v>
       </c>
       <c r="T32">
-        <v>1.817524381245134E-05</v>
+        <v>9.188404047754019E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.121057</v>
+        <v>0.2192486666666666</v>
       </c>
       <c r="H33">
-        <v>6.363171</v>
+        <v>0.6577459999999999</v>
       </c>
       <c r="I33">
-        <v>0.001384744984283513</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="J33">
-        <v>0.001384744984283513</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>12.941443</v>
       </c>
       <c r="O33">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P33">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q33">
-        <v>9.149846088417</v>
+        <v>0.9457980408308888</v>
       </c>
       <c r="R33">
-        <v>82.34861479575301</v>
+        <v>8.512182367477999</v>
       </c>
       <c r="S33">
-        <v>0.0003401600650921815</v>
+        <v>6.529700872611882E-05</v>
       </c>
       <c r="T33">
-        <v>0.0003401600650921815</v>
+        <v>6.529700872611882E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.121057</v>
+        <v>0.2192486666666666</v>
       </c>
       <c r="H34">
-        <v>6.363171</v>
+        <v>0.6577459999999999</v>
       </c>
       <c r="I34">
-        <v>0.001384744984283513</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="J34">
-        <v>0.001384744984283513</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N34">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O34">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P34">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q34">
-        <v>0.626423783133</v>
+        <v>0.07895699916622223</v>
       </c>
       <c r="R34">
-        <v>5.637814048197</v>
+        <v>0.7106129924960001</v>
       </c>
       <c r="S34">
-        <v>2.328829936446256E-05</v>
+        <v>5.451117089453576E-06</v>
       </c>
       <c r="T34">
-        <v>2.328829936446256E-05</v>
+        <v>5.451117089453578E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.121057</v>
+        <v>0.2192486666666666</v>
       </c>
       <c r="H35">
-        <v>6.363171</v>
+        <v>0.6577459999999999</v>
       </c>
       <c r="I35">
-        <v>0.001384744984283513</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="J35">
-        <v>0.001384744984283513</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N35">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O35">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P35">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q35">
-        <v>24.801476372841</v>
+        <v>0.9110463232524444</v>
       </c>
       <c r="R35">
-        <v>223.213287355569</v>
+        <v>8.199416909271999</v>
       </c>
       <c r="S35">
-        <v>0.0009220342873360152</v>
+        <v>6.289778277300328E-05</v>
       </c>
       <c r="T35">
-        <v>0.0009220342873360152</v>
+        <v>6.289778277300328E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.121057</v>
+        <v>0.2192486666666666</v>
       </c>
       <c r="H36">
-        <v>6.363171</v>
+        <v>0.6577459999999999</v>
       </c>
       <c r="I36">
-        <v>0.001384744984283513</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="J36">
-        <v>0.001384744984283513</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N36">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O36">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P36">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q36">
-        <v>0.661033070202</v>
+        <v>0.09980469713355554</v>
       </c>
       <c r="R36">
-        <v>5.949297631818</v>
+        <v>0.8982422742019999</v>
       </c>
       <c r="S36">
-        <v>2.457495459652032E-05</v>
+        <v>6.890422583147083E-06</v>
       </c>
       <c r="T36">
-        <v>2.457495459652033E-05</v>
+        <v>6.890422583147083E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.121057</v>
+        <v>0.2192486666666666</v>
       </c>
       <c r="H37">
-        <v>6.363171</v>
+        <v>0.6577459999999999</v>
       </c>
       <c r="I37">
-        <v>0.001384744984283513</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="J37">
-        <v>0.001384744984283513</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N37">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O37">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P37">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q37">
-        <v>1.520100041247</v>
+        <v>0.05922725015022222</v>
       </c>
       <c r="R37">
-        <v>13.680900371223</v>
+        <v>0.533045251352</v>
       </c>
       <c r="S37">
-        <v>5.651213408188224E-05</v>
+        <v>4.088993741714229E-06</v>
       </c>
       <c r="T37">
-        <v>5.651213408188224E-05</v>
+        <v>4.088993741714229E-06</v>
       </c>
     </row>
   </sheetData>
